--- a/Fontes/incidentes.xlsx
+++ b/Fontes/incidentes.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo\Documents\GitHub\Arraial\Fontes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D243D05-19C5-4943-8112-E443C4043C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282209A2-D4F9-48B1-AC47-09D75313B125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="incidentes" sheetId="3" r:id="rId2"/>
+    <sheet name="Folha1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">incidentes!$A$1:$D$51</definedName>
+    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">Folha1!$A$1:$D$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -765,7 +765,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G21:G22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
